--- a/pred_ohlcv/54_21/2019-10-30 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 VET ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-32749636.4888</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-32756660.4888</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-33424142.90770001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-30995761.84230687</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-30786530.31980687</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-30778788.81940687</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-30974975.32450687</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-30983911.74550687</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-31007814.74550687</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-30983762.90210687</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-30983762.90210687</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-30983657.16710687</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-30983657.16710687</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-35295528.89775766</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-35316922.92765766</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-34923589.01455766</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-34912497.84325766</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-34900143.77245765</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-34905143.77245765</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-35508146.07239625</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-35573536.36089625</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-35642711.00749625</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-35656195.60766342</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-35616195.60766342</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-35616195.60766342</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-35901171.84396341</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-34904058.56516341</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-33688740.95946341</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-33487547.55026341</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-33756130.49986341</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-32299652.78606341</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-33249471.37506341</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-32634862.44416341</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-31810123.62716341</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-31810123.62716341</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-32704053.57164451</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-32965511.07794451</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-32965501.07794451</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-33070355.40874451</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-33303363.94044451</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-33294068.42764451</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-33294068.42764451</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-33364884.42764451</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-33404136.94844451</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-34391811.38434451</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-34902837.93994451</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-35676902.44854451</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-35036705.2048445</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-35036705.2048445</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-35059225.3847445</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-34986521.2293445</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-34558894.23834451</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-33353738.30244451</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-33390738.30244451</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-33668012.68264451</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-33956248.73254451</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 VET ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-32749636.4888</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-32756660.4888</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-33424142.90770001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-33205256.10100001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-30995761.84230687</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-30786530.31980687</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-30778788.81940687</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-30974875.57450687</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-30974975.32450687</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-30983911.74550687</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-31007814.74550687</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-30983762.90210687</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-30983762.90210687</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-30983657.16710687</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-30983657.16710687</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-35295528.89775766</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-35316922.92765766</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-34923589.01455766</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-34912497.84325766</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-34919339.90465765</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-34900143.77245765</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-34905143.77245765</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-34730674.73335765</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-34950015.27225766</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-34928085.44769625</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-35620878.57269625</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-35619878.57269625</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-35619878.57269625</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-35651322.55139625</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-35651322.55139625</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-35651322.55139625</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-35651322.55139625</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-35659144.89649625</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-35571184.57239625</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-35508146.07239625</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-35511913.13929625</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-35573536.36089625</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-35642711.00749625</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-35618328.20539625</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-35656195.60766342</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-35616195.60766342</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-35616195.60766342</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-35901171.84396341</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-36186148.08026341</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-34904058.56516341</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-33688740.95946341</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-33487547.55026341</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-33756130.49986341</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-32299652.78606341</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-33249471.37506341</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-32634862.44416341</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-31810123.62716341</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-31810123.62716341</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-32675402.85304451</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-32743402.85304451</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-32743392.85304451</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-32749412.85304451</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-32704053.57164451</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-32965511.07794451</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-32965501.07794451</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-33070355.40874451</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-33303363.94044451</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-33294068.42764451</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-33294068.42764451</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-33364884.42764451</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-33404136.94844451</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-34391811.38434451</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-34902837.93994451</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-34909829.27104451</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-33677965.99154451</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-33353738.30244451</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-33390738.30244451</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-33668012.68264451</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-33956248.73254451</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
